--- a/Access_Desktop.suite/Resources/Sanity_testdata.xlsx
+++ b/Access_Desktop.suite/Resources/Sanity_testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suganthinatrajan/Eggplant_Testcases/Access_Desktop.suite/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BC5203-1D6F-E44E-BA67-E0155D6F8B41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63C4A28-14A2-EE45-BD00-0F7AE2DDDEFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19260" activeTab="2" xr2:uid="{662A243E-2B0E-4C05-8B32-EC5026EB9CF6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="67">
   <si>
     <t>TestcaseName</t>
   </si>
@@ -227,9 +227,6 @@
     <t>CentralRepo</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>/stage/$USER/AltairAccess</t>
   </si>
   <si>
@@ -240,9 +237,6 @@
   </si>
   <si>
     <t>no</t>
-  </si>
-  <si>
-    <t>n</t>
   </si>
 </sst>
 </file>
@@ -843,10 +837,10 @@
         <v>2</v>
       </c>
       <c r="J2" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -878,10 +872,10 @@
         <v>0</v>
       </c>
       <c r="J3" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -901,7 +895,7 @@
         <v>50</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>54</v>
@@ -913,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>29</v>
@@ -929,7 +923,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F2" sqref="F2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -997,7 +991,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1016,13 +1010,13 @@
       <c r="E4" s="3">
         <v>2</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>67</v>
+      <c r="F4" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>35</v>
@@ -1036,8 +1030,8 @@
       <c r="E5" s="5">
         <v>2</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>67</v>
+      <c r="F5" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1056,8 +1050,8 @@
       <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>67</v>
+      <c r="F6" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1071,7 +1065,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="62.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1140,7 +1134,7 @@
         <v>34</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1191,8 +1185,8 @@
       <c r="G4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>68</v>
+      <c r="H4" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1217,8 +1211,8 @@
       <c r="G5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>67</v>
+      <c r="H5" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Access_Desktop.suite/Resources/Sanity_testdata.xlsx
+++ b/Access_Desktop.suite/Resources/Sanity_testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suganthinatrajan/Eggplant_Testcases/Access_Desktop.suite/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63C4A28-14A2-EE45-BD00-0F7AE2DDDEFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE0B32C-5B03-E441-9BC9-B990E895046F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19260" activeTab="2" xr2:uid="{662A243E-2B0E-4C05-8B32-EC5026EB9CF6}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19260" activeTab="1" xr2:uid="{662A243E-2B0E-4C05-8B32-EC5026EB9CF6}"/>
   </bookViews>
   <sheets>
     <sheet name="CR" sheetId="3" r:id="rId1"/>
@@ -757,7 +757,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -922,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA4FE13A-C238-440C-BD75-766A4748C928}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F6"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1064,7 +1064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D738776A-5825-42F9-9F09-6439114E8738}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>

--- a/Access_Desktop.suite/Resources/Sanity_testdata.xlsx
+++ b/Access_Desktop.suite/Resources/Sanity_testdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suganthinatrajan/Eggplant_Testcases/Access_Desktop.suite/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE0B32C-5B03-E441-9BC9-B990E895046F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2055923C-A527-FA4A-9B0A-67AA3F2D4E75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19260" activeTab="1" xr2:uid="{662A243E-2B0E-4C05-8B32-EC5026EB9CF6}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19260" xr2:uid="{662A243E-2B0E-4C05-8B32-EC5026EB9CF6}"/>
   </bookViews>
   <sheets>
     <sheet name="CR" sheetId="3" r:id="rId1"/>
@@ -756,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0063960F-DC2E-4A0A-AB00-73E69C7813D4}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -840,7 +840,7 @@
         <v>65</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -910,7 +910,7 @@
         <v>65</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -922,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA4FE13A-C238-440C-BD75-766A4748C928}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Access_Desktop.suite/Resources/Sanity_testdata.xlsx
+++ b/Access_Desktop.suite/Resources/Sanity_testdata.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suganthinatrajan/Eggplant_Testcases/Access_Desktop.suite/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2055923C-A527-FA4A-9B0A-67AA3F2D4E75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E14A43-31C9-7A45-980C-FA9D6F5B8BC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19260" xr2:uid="{662A243E-2B0E-4C05-8B32-EC5026EB9CF6}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19260" activeTab="2" xr2:uid="{662A243E-2B0E-4C05-8B32-EC5026EB9CF6}"/>
   </bookViews>
   <sheets>
     <sheet name="CR" sheetId="3" r:id="rId1"/>
-    <sheet name="JS" sheetId="2" r:id="rId2"/>
-    <sheet name="CP" sheetId="4" r:id="rId3"/>
-    <sheet name="JSP" sheetId="5" r:id="rId4"/>
+    <sheet name="CR-HTTPS" sheetId="6" r:id="rId2"/>
+    <sheet name="JS" sheetId="2" r:id="rId3"/>
+    <sheet name="CP" sheetId="4" r:id="rId4"/>
+    <sheet name="JSP" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="70">
   <si>
     <t>TestcaseName</t>
   </si>
@@ -62,9 +63,6 @@
     <t>scriptName</t>
   </si>
   <si>
-    <t>PBSJobApp</t>
-  </si>
-  <si>
     <t>JSCompleteAppDef</t>
   </si>
   <si>
@@ -182,27 +180,12 @@
     <t>CR</t>
   </si>
   <si>
-    <t>blrvm9vm5</t>
-  </si>
-  <si>
-    <t>epuser</t>
-  </si>
-  <si>
-    <t>ep@user</t>
-  </si>
-  <si>
-    <t>/stage/$USER/PBSAccess</t>
-  </si>
-  <si>
     <t>Auto</t>
   </si>
   <si>
     <t>CR123</t>
   </si>
   <si>
-    <t>https://172.16.80.37:4443</t>
-  </si>
-  <si>
     <t>Set</t>
   </si>
   <si>
@@ -236,14 +219,41 @@
     <t>ClusterRegistration</t>
   </si>
   <si>
-    <t>no</t>
+    <t>HTTPS_Cluster_Registration_ClusterName_BLANK</t>
+  </si>
+  <si>
+    <t>Display Name</t>
+  </si>
+  <si>
+    <t>hosturl</t>
+  </si>
+  <si>
+    <t>https://172.16.80.30:4443</t>
+  </si>
+  <si>
+    <t>pbsadmin</t>
+  </si>
+  <si>
+    <t>HTTPS_CR</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>ShellScript</t>
+  </si>
+  <si>
+    <t>blrvm16vm4</t>
+  </si>
+  <si>
+    <t>Check</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,6 +308,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -401,7 +419,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -409,8 +427,9 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
@@ -434,11 +453,13 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="7" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Accent5" xfId="6" builtinId="45"/>
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
     <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Neutral" xfId="5" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -756,7 +777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0063960F-DC2E-4A0A-AB00-73E69C7813D4}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
@@ -777,153 +798,229 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" t="s">
         <v>45</v>
-      </c>
-      <c r="G1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" t="s">
-        <v>46</v>
       </c>
       <c r="J1" t="s">
         <v>7</v>
       </c>
       <c r="K1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E2" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>56</v>
       </c>
       <c r="I2" s="12">
         <v>2</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E3" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>56</v>
       </c>
       <c r="I3" s="12">
         <v>0</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="F4" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="H4" s="12" t="s">
         <v>54</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>60</v>
       </c>
       <c r="I4" s="12">
         <v>0</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G4" r:id="rId1" xr:uid="{D918D0E6-8799-0B46-88B7-DC8CC67FA057}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE1CE448-76C0-9841-877E-7DC060F60D64}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="56.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="5.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{8EE297C6-3032-E24E-8302-63A61C594B3C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA4FE13A-C238-440C-BD75-766A4748C928}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -948,110 +1045,110 @@
         <v>7</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="3">
         <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="5">
         <v>2</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1060,12 +1157,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D738776A-5825-42F9-9F09-6439114E8738}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="62.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1093,33 +1190,33 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="E1" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="9">
         <v>2</v>
@@ -1128,24 +1225,24 @@
         <v>2</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="9">
         <v>4</v>
@@ -1154,24 +1251,24 @@
         <v>2</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="8">
         <v>2</v>
@@ -1180,24 +1277,24 @@
         <v>2</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="8">
         <v>3</v>
@@ -1206,13 +1303,13 @@
         <v>2</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1221,7 +1318,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27FFD82-9FC1-45FF-A306-3D9B749B3363}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -1254,10 +1351,10 @@
         <v>7</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="G1">
         <f>COUNTIF(F1:F2,"Yes")</f>
@@ -1270,22 +1367,22 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="11">
         <v>2</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
